--- a/Correct_Cooler_requirements_-_Bohdan_Bey.xlsx
+++ b/Correct_Cooler_requirements_-_Bohdan_Bey.xlsx
@@ -331,12 +331,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -367,7 +373,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -401,6 +407,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -710,7 +719,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A4" sqref="A4:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,7 +812,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="12">
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -829,7 +838,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="12">
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -855,7 +864,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="12">
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -881,7 +890,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="12">
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
